--- a/data_output/HBSC_DNSSSU/MPALC/insp_desc_20210817_None_[8, 40, 3, 20]_[0.05, 1.0]_[True, 10]_[0.9, 80]_['prev', 'data', None, None, 'max', None, 'max', 1]_prev.xlsx
+++ b/data_output/HBSC_DNSSSU/MPALC/insp_desc_20210817_None_[8, 40, 3, 20]_[0.05, 1.0]_[True, 10]_[0.9, 80]_['prev', 'data', None, None, 'max', None, 'max', 1]_prev.xlsx
@@ -16,12 +16,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="88">
   <si>
     <t>sg</t>
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t>size</t>
   </si>
   <si>
     <t>cov</t>
@@ -634,13 +637,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,8 +662,11 @@
       <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -668,19 +674,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2">
+        <v>6453</v>
+      </c>
+      <c r="E2">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>30.5</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -688,22 +697,25 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3">
+        <v>4663</v>
+      </c>
+      <c r="E3">
         <v>0.1317790024021478</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>34.6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.2773903610723695</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1344262295081968</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -711,22 +723,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4">
+        <v>4505</v>
+      </c>
+      <c r="E4">
         <v>0.1273138335452876</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>38.5</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>0.03388376581599821</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.1127167630057803</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -734,19 +749,22 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D5">
+        <v>6453</v>
+      </c>
+      <c r="E5">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>30.5</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -754,22 +772,25 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D6">
+        <v>4663</v>
+      </c>
+      <c r="E6">
         <v>0.1317790024021478</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>34.6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>0.2773903610723695</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.1344262295081968</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -777,22 +798,25 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7">
+        <v>2957</v>
+      </c>
+      <c r="E7">
         <v>0.08356648297301117</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>37.4</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>0.3658588891271712</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.0809248554913294</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -800,19 +824,22 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D8">
+        <v>6453</v>
+      </c>
+      <c r="E8">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>30.5</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -820,22 +847,25 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D9">
+        <v>6205</v>
+      </c>
+      <c r="E9">
         <v>0.1753567896001131</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>33.7</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>0.03843173717650702</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.1049180327868853</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -843,22 +873,25 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D10">
+        <v>3277</v>
+      </c>
+      <c r="E10">
         <v>0.09260986293627244</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>36.2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.4718775181305399</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.07418397626112759</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -866,19 +899,22 @@
         <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D11">
+        <v>6453</v>
+      </c>
+      <c r="E11">
         <v>0.1823654090716405</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>30.5</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>0.8176345909283594</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -886,22 +922,25 @@
         <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D12">
+        <v>6205</v>
+      </c>
+      <c r="E12">
         <v>0.1753567896001131</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>33.7</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.03843173717650702</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.1049180327868853</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -909,22 +948,25 @@
         <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D13">
+        <v>3113</v>
+      </c>
+      <c r="E13">
         <v>0.08797513070510103</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>35.9</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.4983078162771958</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.06528189910979215</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -932,19 +974,22 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D14">
+        <v>15221</v>
+      </c>
+      <c r="E14">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>27.4</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -952,22 +997,25 @@
         <v>4</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D15">
+        <v>14345</v>
+      </c>
+      <c r="E15">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>30.5</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -975,22 +1023,25 @@
         <v>4</v>
       </c>
       <c r="C16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D16">
+        <v>12548</v>
+      </c>
+      <c r="E16">
         <v>0.3546135368093825</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>32</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>0.1252701289647961</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.04918032786885246</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -998,19 +1049,22 @@
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D17">
+        <v>15221</v>
+      </c>
+      <c r="E17">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>27.4</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1018,22 +1072,25 @@
         <v>5</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D18">
+        <v>14345</v>
+      </c>
+      <c r="E18">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>30.5</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1041,22 +1098,25 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D19">
+        <v>13475</v>
+      </c>
+      <c r="E19">
         <v>0.380811078140455</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>31.8</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>0.06064830951551067</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.04262295081967216</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1064,19 +1124,22 @@
         <v>6</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20">
+        <v>11297</v>
+      </c>
+      <c r="E20">
         <v>0.319259573265508</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>22.5</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1084,22 +1147,25 @@
         <v>6</v>
       </c>
       <c r="C21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21">
+        <v>9489</v>
+      </c>
+      <c r="E21">
         <v>0.2681644764730818</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>24.9</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1600424891564131</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1066666666666666</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1107,19 +1173,22 @@
         <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D22">
+        <v>15221</v>
+      </c>
+      <c r="E22">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>27.4</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1127,22 +1196,25 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D23">
+        <v>14345</v>
+      </c>
+      <c r="E23">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>30.5</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1150,22 +1222,25 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24">
+        <v>11449</v>
+      </c>
+      <c r="E24">
         <v>0.3235551787480571</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>31.4</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>0.2018821889159987</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>0.02950819672131143</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1173,19 +1248,22 @@
         <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D25">
+        <v>11297</v>
+      </c>
+      <c r="E25">
         <v>0.319259573265508</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>22.5</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1193,22 +1271,25 @@
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D26">
+        <v>8831</v>
+      </c>
+      <c r="E26">
         <v>0.2495690264236258</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>24.4</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>0.2182880410728512</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.08444444444444438</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1216,19 +1297,22 @@
         <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D27">
+        <v>15221</v>
+      </c>
+      <c r="E27">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>27.4</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1236,22 +1320,25 @@
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D28">
+        <v>14345</v>
+      </c>
+      <c r="E28">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>30.5</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1259,22 +1346,25 @@
         <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D29">
+        <v>14163</v>
+      </c>
+      <c r="E29">
         <v>0.4002543450614667</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>30.9</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>0.0126873475078425</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.01311475409836061</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1282,19 +1372,22 @@
         <v>10</v>
       </c>
       <c r="C30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D30">
+        <v>15221</v>
+      </c>
+      <c r="E30">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>27.4</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1302,22 +1395,25 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D31">
+        <v>13244</v>
+      </c>
+      <c r="E31">
         <v>0.3742828882294758</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>30.4</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>0.1298863412390777</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>0.1094890510948905</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1325,22 +1421,25 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D32">
+        <v>13167</v>
+      </c>
+      <c r="E32">
         <v>0.372106824925816</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>30.9</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>0.005813953488372017</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>0.01644736842105263</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1348,19 +1447,22 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D33">
+        <v>11297</v>
+      </c>
+      <c r="E33">
         <v>0.319259573265508</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>22.5</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1368,22 +1470,25 @@
         <v>11</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D34">
+        <v>9303</v>
+      </c>
+      <c r="E34">
         <v>0.2629080118694362</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>22.8</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.1765070372665309</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.01333333333333337</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1391,19 +1496,22 @@
         <v>12</v>
       </c>
       <c r="C35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D35">
+        <v>15221</v>
+      </c>
+      <c r="E35">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>27.4</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1411,22 +1519,25 @@
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D36">
+        <v>14345</v>
+      </c>
+      <c r="E36">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>30.5</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1434,22 +1545,25 @@
         <v>12</v>
       </c>
       <c r="C37" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D37">
+        <v>12333</v>
+      </c>
+      <c r="E37">
         <v>0.3485375158965663</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>30.7</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>0.1402579295921925</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>0.006557377049180304</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1457,19 +1571,22 @@
         <v>13</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D38">
+        <v>11297</v>
+      </c>
+      <c r="E38">
         <v>0.319259573265508</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>22.5</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1477,19 +1594,22 @@
         <v>14</v>
       </c>
       <c r="C39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D39">
+        <v>15221</v>
+      </c>
+      <c r="E39">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>27.4</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1497,22 +1617,25 @@
         <v>14</v>
       </c>
       <c r="C40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D40">
+        <v>14345</v>
+      </c>
+      <c r="E40">
         <v>0.4053977674155716</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>30.5</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>0.05755206622429535</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>0.1131386861313869</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1520,19 +1643,22 @@
         <v>15</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D41">
+        <v>11297</v>
+      </c>
+      <c r="E41">
         <v>0.319259573265508</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>22.5</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1540,22 +1666,25 @@
         <v>15</v>
       </c>
       <c r="C42" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D42">
+        <v>10573</v>
+      </c>
+      <c r="E42">
         <v>0.2987989260986293</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>22.4</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>0.06408781092325397</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>-0.004444444444444508</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1563,19 +1692,22 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43">
+        <v>15221</v>
+      </c>
+      <c r="E43">
         <v>0.4301540200649993</v>
       </c>
-      <c r="E43">
+      <c r="F43">
         <v>27.4</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>0.5698459799350006</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1583,22 +1715,25 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D44">
+        <v>13244</v>
+      </c>
+      <c r="E44">
         <v>0.3742828882294758</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>30.4</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>0.1298863412390777</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>0.1094890510948905</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1606,22 +1741,25 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D45">
+        <v>13130</v>
+      </c>
+      <c r="E45">
         <v>0.3710611841175639</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>30.8</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>0.008607671398369014</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>0.01315789473684218</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1629,19 +1767,22 @@
         <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D46">
+        <v>11297</v>
+      </c>
+      <c r="E46">
         <v>0.319259573265508</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>22.5</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1649,22 +1790,25 @@
         <v>17</v>
       </c>
       <c r="C47" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D47">
+        <v>10044</v>
+      </c>
+      <c r="E47">
         <v>0.2838490885968631</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>22.2</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>0.1109144020536425</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>-0.01333333333333337</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1672,19 +1816,22 @@
         <v>18</v>
       </c>
       <c r="C48" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D48">
+        <v>24088</v>
+      </c>
+      <c r="E48">
         <v>0.680740426734492</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>18.2</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>0.319259573265508</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1692,22 +1839,25 @@
         <v>18</v>
       </c>
       <c r="C49" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D49">
+        <v>22156</v>
+      </c>
+      <c r="E49">
         <v>0.6261410202063021</v>
       </c>
-      <c r="E49">
+      <c r="F49">
         <v>21.6</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>0.08020591165725663</v>
       </c>
-      <c r="G49">
+      <c r="H49">
         <v>0.1868131868131869</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1715,19 +1865,22 @@
         <v>19</v>
       </c>
       <c r="C50" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D50">
+        <v>11297</v>
+      </c>
+      <c r="E50">
         <v>0.319259573265508</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>22.5</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>0.6807404267344921</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1735,18 +1888,21 @@
         <v>19</v>
       </c>
       <c r="C51" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D51">
+        <v>10639</v>
+      </c>
+      <c r="E51">
         <v>0.300664123216052</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>21.8</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>0.0582455519164379</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>-0.03111111111111108</v>
       </c>
     </row>
@@ -1765,69 +1921,69 @@
   <sheetData>
     <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:21">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1892,7 +2048,7 @@
     </row>
     <row r="3" spans="1:21">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>0.6158510177566046</v>
@@ -1957,7 +2113,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>0.4141377430492459</v>
@@ -2022,7 +2178,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0.445266552836274</v>
@@ -2087,7 +2243,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>0.3590213579853363</v>
@@ -2152,7 +2308,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.3343228200371057</v>
@@ -2217,7 +2373,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -2282,7 +2438,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9">
         <v>0.3063129452223041</v>
@@ -2347,7 +2503,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -2412,7 +2568,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B11">
         <v>0.3143702034781384</v>
@@ -2477,7 +2633,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>0.342143236880079</v>
@@ -2542,7 +2698,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -2607,7 +2763,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B14">
         <v>0.2996295152824946</v>
@@ -2672,7 +2828,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -2737,7 +2893,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
         <v>0.314046706169397</v>
@@ -2802,7 +2958,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -2867,7 +3023,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0.3431073876618431</v>
@@ -2932,7 +3088,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -2997,7 +3153,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>0.2033309261599567</v>
@@ -3062,7 +3218,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -3140,169 +3296,169 @@
   <sheetData>
     <row r="1" spans="1:55">
       <c r="A1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="BC1" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:55">
